--- a/flows/BKLN_fund_flow_data.xlsx
+++ b/flows/BKLN_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3273"/>
+  <dimension ref="A1:B3285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33165,6 +33165,126 @@
         <v>23.2474</v>
       </c>
     </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3275" t="n">
+        <v>4.2272</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3276" t="n">
+        <v>40.1831</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3277" t="n">
+        <v>2.117</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3279" t="n">
+        <v>57.2292</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3280" t="n">
+        <v>14.8484</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3281" t="n">
+        <v>36.0706</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3282" t="n">
+        <v>16.9888</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3283" t="n">
+        <v>63.732</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3284" t="n">
+        <v>19.1259</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3285" t="n">
+        <v>2.1253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
